--- a/Java Advanced Training - Participants.xlsx
+++ b/Java Advanced Training - Participants.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://v2soft-my.sharepoint.com/personal/amathaian_v2soft_com/Documents/2024/Activities December'24/External Training/Advanced JAVA/Siddhi/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\v2soft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{55D70F0A-1CC0-4B1D-9F22-5A40CCD26B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F59F38F2-39F6-47F2-83D1-C57FF4C9BB27}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A078FFD3-46B5-4F47-8867-18EFAA8C3B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{DEE6BE9D-ABA3-44C5-9648-ED788D068D28}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DEE6BE9D-ABA3-44C5-9648-ED788D068D28}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -164,12 +164,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -199,13 +211,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -540,16 +555,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{554D5CD4-EABB-46F6-96A5-6602D2483764}">
-  <dimension ref="B2:C33"/>
+  <dimension ref="B2:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>32</v>
       </c>
@@ -557,7 +574,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -565,23 +582,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D4" s="4"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -589,7 +609,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>5</v>
       </c>
@@ -597,7 +617,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>6</v>
       </c>
@@ -605,7 +625,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>7</v>
       </c>
@@ -613,7 +633,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>8</v>
       </c>
@@ -621,7 +641,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>9</v>
       </c>
@@ -629,7 +649,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>10</v>
       </c>
@@ -637,7 +657,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>11</v>
       </c>
@@ -645,7 +665,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
         <v>12</v>
       </c>
@@ -653,7 +673,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
         <v>13</v>
       </c>
@@ -661,7 +681,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
         <v>14</v>
       </c>
@@ -669,7 +689,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
         <v>15</v>
       </c>
@@ -677,7 +697,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="1">
         <v>16</v>
       </c>
@@ -685,23 +705,25 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="1">
         <v>17</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" s="1">
         <v>18</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21" s="1">
         <v>19</v>
       </c>
@@ -709,7 +731,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" s="1">
         <v>20</v>
       </c>
@@ -717,7 +739,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" s="1">
         <v>21</v>
       </c>
@@ -725,7 +747,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B24" s="1">
         <v>22</v>
       </c>
@@ -733,7 +755,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B25" s="1">
         <v>23</v>
       </c>
@@ -741,7 +763,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B26" s="1">
         <v>24</v>
       </c>
@@ -749,23 +771,25 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B27" s="1">
         <v>25</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D27" s="6"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B28" s="1">
         <v>26</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B29" s="1">
         <v>27</v>
       </c>
@@ -773,15 +797,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B30" s="1">
         <v>28</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B31" s="1">
         <v>29</v>
       </c>
@@ -789,7 +814,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B32" s="1">
         <v>30</v>
       </c>
@@ -797,13 +822,14 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33" s="1">
         <v>31</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="D33" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
